--- a/physics_db/mapping.xlsx
+++ b/physics_db/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\physics_bot\physics_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1347AF42-EFBA-40DB-9D93-6843AB319EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132EC1D0-01E4-462B-B9AF-5F8BFB8ED714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{DF0803EC-9934-4FC7-A522-EA3D16A5E980}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="150">
   <si>
     <t>paper_code</t>
   </si>
@@ -279,6 +279,213 @@
   </si>
   <si>
     <t>state; graph; calculate</t>
+  </si>
+  <si>
+    <t>9702_w25_qp_21</t>
+  </si>
+  <si>
+    <t>define; explain; determine</t>
+  </si>
+  <si>
+    <t>define; state; graph; determine</t>
+  </si>
+  <si>
+    <t>state what is meant; determine; graph</t>
+  </si>
+  <si>
+    <t>state what is meant; graph; explain; determine</t>
+  </si>
+  <si>
+    <t>determine; state what is meant</t>
+  </si>
+  <si>
+    <t>9702_w25_qp_22</t>
+  </si>
+  <si>
+    <t>define; calculate; explain; determine</t>
+  </si>
+  <si>
+    <t>Measurement; Dynamic</t>
+  </si>
+  <si>
+    <t>6,7,8,9</t>
+  </si>
+  <si>
+    <t>calculate; state what is meant; determine</t>
+  </si>
+  <si>
+    <t>Material; Energy</t>
+  </si>
+  <si>
+    <t>state what is meant; calculate; explain</t>
+  </si>
+  <si>
+    <t>state what is meant; determine; calculate</t>
+  </si>
+  <si>
+    <t>9702_w25_qp_23</t>
+  </si>
+  <si>
+    <t>Measurement; Kinematic; Energy</t>
+  </si>
+  <si>
+    <t>define; state what is meant; graph; determine</t>
+  </si>
+  <si>
+    <t>state what is meant; explain; calculate</t>
+  </si>
+  <si>
+    <t>9702_w25_qp_24</t>
+  </si>
+  <si>
+    <t>calculate; show that; define; determine; graph</t>
+  </si>
+  <si>
+    <t>Kinematic; Momentum</t>
+  </si>
+  <si>
+    <t>define; explain; show that; determine</t>
+  </si>
+  <si>
+    <t>state; determine; show that; explain</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>state; explain; calculate</t>
+  </si>
+  <si>
+    <t>describe; state; show that</t>
+  </si>
+  <si>
+    <t>9702_m25_qp_42</t>
+  </si>
+  <si>
+    <t>Circular motion</t>
+  </si>
+  <si>
+    <t>graph; explain</t>
+  </si>
+  <si>
+    <t>Electric Field and Electric Potential; Gravity</t>
+  </si>
+  <si>
+    <t>9,10,11</t>
+  </si>
+  <si>
+    <t>Thermal Physics and Ideal gas</t>
+  </si>
+  <si>
+    <t>Oscillation; Medical Imaging</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Motion of charged particles; Electric Field and Electric Potential; Magnetism</t>
+  </si>
+  <si>
+    <t>18,19</t>
+  </si>
+  <si>
+    <t>Electromagnetic Induction</t>
+  </si>
+  <si>
+    <t>Quantum Physics</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>22,23,24</t>
+  </si>
+  <si>
+    <t>Nuclear Physics; Medical Imaging</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>26,27</t>
+  </si>
+  <si>
+    <t>Astronomy and Cosmology</t>
+  </si>
+  <si>
+    <t>9702_s25_qp_41</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>define; calculate; state</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>Electric Field and Electric Potential; Circular motion</t>
+  </si>
+  <si>
+    <t>define; explain; calculate</t>
+  </si>
+  <si>
+    <t>define; explain</t>
+  </si>
+  <si>
+    <t>calculate; graph</t>
+  </si>
+  <si>
+    <t>Oscillation</t>
+  </si>
+  <si>
+    <t>state; calculate; define</t>
+  </si>
+  <si>
+    <t>Alternating current; Capacitor</t>
+  </si>
+  <si>
+    <t>define; state; calculate</t>
+  </si>
+  <si>
+    <t>Motion of charged particles; Magnetism</t>
+  </si>
+  <si>
+    <t>define; calculate; graph</t>
+  </si>
+  <si>
+    <t>Nuclear Physics</t>
+  </si>
+  <si>
+    <t>explain; calculate; state</t>
+  </si>
+  <si>
+    <t>9702_s25_qp_42</t>
+  </si>
+  <si>
+    <t>define; calculate; explain</t>
+  </si>
+  <si>
+    <t>explain; graph</t>
+  </si>
+  <si>
+    <t>Gravity; Magnetism</t>
+  </si>
+  <si>
+    <t>define; explain; graph</t>
+  </si>
+  <si>
+    <t>calculate; define; explain</t>
+  </si>
+  <si>
+    <t>Electric Field and Electric Potential; Medical Imaging</t>
+  </si>
+  <si>
+    <t>calculate; define</t>
+  </si>
+  <si>
+    <t>Alternating current</t>
   </si>
 </sst>
 </file>
@@ -664,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6E3A30-2ADF-42B8-8F87-8D4B364A3588}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1533,6 +1740,1248 @@
         <v>24</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="2">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="2">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="2">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="2">
+        <v>12</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="2">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="2">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" s="2">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="2">
+        <v>7</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="2">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="2">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="2">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="2">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="2">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="2">
+        <v>21</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="2">
+        <v>13</v>
+      </c>
+      <c r="E70" s="2">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" s="2">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="2">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2">
+        <v>12</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2">
+        <v>10</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="2">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2">
+        <v>12</v>
+      </c>
+      <c r="E75" s="2">
+        <v>8</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="2">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2">
+        <v>13</v>
+      </c>
+      <c r="E76" s="2">
+        <v>9</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2">
+        <v>14</v>
+      </c>
+      <c r="E77" s="2">
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="2">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="2">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="2">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="2">
+        <v>19</v>
+      </c>
+      <c r="E81" s="2">
+        <v>10</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="2">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2">
+        <v>9</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="2">
+        <v>10</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="2">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2">
+        <v>12</v>
+      </c>
+      <c r="E85" s="2">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="2">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2">
+        <v>9</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2">
+        <v>14</v>
+      </c>
+      <c r="E87" s="2">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="2">
+        <v>11</v>
+      </c>
+      <c r="D88" s="2">
+        <v>15</v>
+      </c>
+      <c r="E88" s="2">
+        <v>9</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="2">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2">
+        <v>16</v>
+      </c>
+      <c r="E89" s="2">
+        <v>10</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="2">
+        <v>13</v>
+      </c>
+      <c r="D90" s="2">
+        <v>17</v>
+      </c>
+      <c r="E90" s="2">
+        <v>10</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="2">
+        <v>18</v>
+      </c>
+      <c r="E91" s="2">
+        <v>13</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
